--- a/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/11 AUDITORIA DE ESTADO RESULTADOS/8 PRUEBA DE PLANILLA.xlsx
+++ b/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/11 AUDITORIA DE ESTADO RESULTADOS/8 PRUEBA DE PLANILLA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\workana\Trabajo Victor Guatemala\auditaPro\auditapro\static\templates_base_financiera\5 PRUEBAS SUSTANTIVAS\11 AUDITORIA DE ESTADO RESULTADOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\5 PRUEBAS SUSTANTIVAS\11 AUDITORIA DE ESTADO RESULTADOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED2940B1-2EFD-4ED1-970E-462AE7C494EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743A4D86-E155-4B7D-9524-F1D6B3CBB4C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acerno_Cache_XXXXX" sheetId="4" state="veryHidden" r:id="rId1"/>
@@ -79,9 +79,6 @@
     <t>PRUEBA DE NOMINAS</t>
   </si>
   <si>
-    <t xml:space="preserve">     BANCADEFE</t>
-  </si>
-  <si>
     <t>Incentivo</t>
   </si>
   <si>
@@ -172,21 +169,24 @@
     <t xml:space="preserve">Banco </t>
   </si>
   <si>
-    <t xml:space="preserve">                DEL 01 DE ENERO AL 31 DE DICIEMBRE DE 2024</t>
-  </si>
-  <si>
     <t xml:space="preserve">                                        Auditor </t>
   </si>
   <si>
     <t>R-7</t>
+  </si>
+  <si>
+    <t>Entidad XXXXXXX</t>
+  </si>
+  <si>
+    <t>Del 01 de Enero al 31 de Diciembre de 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="182" formatCode="_-[$Q-100A]* #,##0.00_ ;_-[$Q-100A]* \-#,##0.00\ ;_-[$Q-100A]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="164" formatCode="_-[$Q-100A]* #,##0.00_ ;_-[$Q-100A]* \-#,##0.00\ ;_-[$Q-100A]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -533,7 +533,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -542,22 +542,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -598,10 +596,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="182" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -610,16 +608,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="182" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="182" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -655,6 +653,15 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1173,14 +1180,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="11.42578125" style="17"/>
+    <col min="1" max="16384" width="11.42578125" style="15"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1188,11 +1195,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:O40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1212,618 +1219,617 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="58" t="s">
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" s="14"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D4" s="11"/>
+      <c r="E4" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+    </row>
+    <row r="5" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="B5" s="16"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="23"/>
+    </row>
+    <row r="6" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="B6" s="16"/>
+      <c r="C6" s="17"/>
+      <c r="E6" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="O2" s="16"/>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12" t="s">
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" s="24"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7" s="24"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8" s="24"/>
+    </row>
+    <row r="9" spans="2:15" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="11"/>
+      <c r="C9" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+    </row>
+    <row r="10" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="45"/>
+      <c r="K10" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+    </row>
+    <row r="11" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="48"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-    </row>
-    <row r="5" spans="2:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="B5" s="18"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="N5" s="25"/>
-    </row>
-    <row r="6" spans="2:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="N6" s="26"/>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="N7" s="26"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="N8" s="26"/>
-    </row>
-    <row r="9" spans="2:15" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="12"/>
-      <c r="C9" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-    </row>
-    <row r="10" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="49" t="s">
+      <c r="J11" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+    </row>
+    <row r="12" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="33">
+        <v>1</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="35">
+        <v>3000</v>
+      </c>
+      <c r="E12" s="36">
+        <v>30</v>
+      </c>
+      <c r="F12" s="35">
         <v>0</v>
       </c>
-      <c r="C10" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="44" t="s">
+      <c r="G12" s="35">
+        <v>0</v>
+      </c>
+      <c r="H12" s="37">
+        <v>144.9</v>
+      </c>
+      <c r="I12" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="32">
+        <v>6355.1</v>
+      </c>
+      <c r="L12" s="32"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+    </row>
+    <row r="13" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="34">
         <v>2</v>
       </c>
-      <c r="E10" s="43" t="s">
+      <c r="C13" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="35">
+        <v>3000</v>
+      </c>
+      <c r="E13" s="36">
+        <v>30</v>
+      </c>
+      <c r="F13" s="35">
+        <v>0</v>
+      </c>
+      <c r="G13" s="35">
+        <v>0</v>
+      </c>
+      <c r="H13" s="37">
+        <v>144.9</v>
+      </c>
+      <c r="I13" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="32">
+        <v>6355.1</v>
+      </c>
+      <c r="L13" s="32"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+    </row>
+    <row r="14" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="34">
+        <v>3</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="35">
+        <v>2000</v>
+      </c>
+      <c r="E14" s="36">
+        <v>30</v>
+      </c>
+      <c r="F14" s="35">
+        <v>0</v>
+      </c>
+      <c r="G14" s="35">
+        <v>0</v>
+      </c>
+      <c r="H14" s="37">
+        <v>96.6</v>
+      </c>
+      <c r="I14" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="32">
+        <v>5403.4</v>
+      </c>
+      <c r="L14" s="32"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+    </row>
+    <row r="15" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="34">
         <v>4</v>
       </c>
-      <c r="F10" s="45" t="s">
+      <c r="C15" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="35">
+        <v>4000</v>
+      </c>
+      <c r="E15" s="36">
+        <v>30</v>
+      </c>
+      <c r="F15" s="35">
+        <v>0</v>
+      </c>
+      <c r="G15" s="35">
+        <v>0</v>
+      </c>
+      <c r="H15" s="37">
+        <v>193.2</v>
+      </c>
+      <c r="I15" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="32">
+        <v>9500</v>
+      </c>
+      <c r="L15" s="32"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+    </row>
+    <row r="16" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="34">
+        <v>5</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="35">
+        <v>3000</v>
+      </c>
+      <c r="E16" s="36">
+        <v>30</v>
+      </c>
+      <c r="F16" s="35">
+        <v>0</v>
+      </c>
+      <c r="G16" s="35">
+        <v>0</v>
+      </c>
+      <c r="H16" s="37">
+        <v>144.9</v>
+      </c>
+      <c r="I16" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="32">
+        <v>6355.1</v>
+      </c>
+      <c r="L16" s="32"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+    </row>
+    <row r="17" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="34">
         <v>6</v>
       </c>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="46" t="s">
+      <c r="C17" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="35">
+        <v>2000</v>
+      </c>
+      <c r="E17" s="36">
+        <v>30</v>
+      </c>
+      <c r="F17" s="35">
+        <v>0</v>
+      </c>
+      <c r="G17" s="35">
+        <v>0</v>
+      </c>
+      <c r="H17" s="37">
+        <v>96.6</v>
+      </c>
+      <c r="I17" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="32">
+        <v>5403.4</v>
+      </c>
+      <c r="L17" s="32"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+    </row>
+    <row r="18" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="34">
+        <v>7</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="35">
+        <v>2000</v>
+      </c>
+      <c r="E18" s="36">
+        <v>30</v>
+      </c>
+      <c r="F18" s="35">
+        <v>0</v>
+      </c>
+      <c r="G18" s="35">
+        <v>0</v>
+      </c>
+      <c r="H18" s="37">
+        <v>96.6</v>
+      </c>
+      <c r="I18" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="32">
+        <v>3403.4</v>
+      </c>
+      <c r="L18" s="32"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+    </row>
+    <row r="19" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="34">
         <v>8</v>
       </c>
-      <c r="J10" s="47"/>
-      <c r="K10" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="L10" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-    </row>
-    <row r="11" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="50"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="52" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="L11" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-    </row>
-    <row r="12" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="35">
-        <v>1</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="37">
-        <v>3000</v>
-      </c>
-      <c r="E12" s="38">
+      <c r="C19" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="35">
+        <v>5000</v>
+      </c>
+      <c r="E19" s="36">
         <v>30</v>
       </c>
-      <c r="F12" s="37">
+      <c r="F19" s="35">
         <v>0</v>
       </c>
-      <c r="G12" s="37">
+      <c r="G19" s="35">
         <v>0</v>
       </c>
-      <c r="H12" s="39">
-        <v>144.9</v>
-      </c>
-      <c r="I12" s="39" t="s">
+      <c r="H19" s="37">
+        <v>241.5</v>
+      </c>
+      <c r="I19" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" s="34">
-        <v>6355.1</v>
-      </c>
-      <c r="L12" s="34"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-    </row>
-    <row r="13" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="36">
-        <v>2</v>
-      </c>
-      <c r="C13" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="37">
-        <v>3000</v>
-      </c>
-      <c r="E13" s="38">
-        <v>30</v>
-      </c>
-      <c r="F13" s="37">
-        <v>0</v>
-      </c>
-      <c r="G13" s="37">
-        <v>0</v>
-      </c>
-      <c r="H13" s="39">
-        <v>144.9</v>
-      </c>
-      <c r="I13" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="K13" s="34">
-        <v>6355.1</v>
-      </c>
-      <c r="L13" s="34"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-    </row>
-    <row r="14" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="36">
-        <v>3</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="37">
-        <v>2000</v>
-      </c>
-      <c r="E14" s="38">
-        <v>30</v>
-      </c>
-      <c r="F14" s="37">
-        <v>0</v>
-      </c>
-      <c r="G14" s="37">
-        <v>0</v>
-      </c>
-      <c r="H14" s="39">
-        <v>96.6</v>
-      </c>
-      <c r="I14" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="K14" s="34">
-        <v>5403.4</v>
-      </c>
-      <c r="L14" s="34"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-    </row>
-    <row r="15" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="36">
-        <v>4</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="37">
-        <v>4000</v>
-      </c>
-      <c r="E15" s="38">
-        <v>30</v>
-      </c>
-      <c r="F15" s="37">
-        <v>0</v>
-      </c>
-      <c r="G15" s="37">
-        <v>0</v>
-      </c>
-      <c r="H15" s="39">
-        <v>193.2</v>
-      </c>
-      <c r="I15" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="K15" s="34">
-        <v>9500</v>
-      </c>
-      <c r="L15" s="34"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-    </row>
-    <row r="16" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="36">
-        <v>5</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="37">
-        <v>3000</v>
-      </c>
-      <c r="E16" s="38">
-        <v>30</v>
-      </c>
-      <c r="F16" s="37">
-        <v>0</v>
-      </c>
-      <c r="G16" s="37">
-        <v>0</v>
-      </c>
-      <c r="H16" s="39">
-        <v>144.9</v>
-      </c>
-      <c r="I16" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="K16" s="34">
-        <v>6355.1</v>
-      </c>
-      <c r="L16" s="34"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-    </row>
-    <row r="17" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="36">
-        <v>6</v>
-      </c>
-      <c r="C17" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="37">
-        <v>2000</v>
-      </c>
-      <c r="E17" s="38">
-        <v>30</v>
-      </c>
-      <c r="F17" s="37">
-        <v>0</v>
-      </c>
-      <c r="G17" s="37">
-        <v>0</v>
-      </c>
-      <c r="H17" s="39">
-        <v>96.6</v>
-      </c>
-      <c r="I17" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="K17" s="34">
-        <v>5403.4</v>
-      </c>
-      <c r="L17" s="34"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-    </row>
-    <row r="18" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="36">
-        <v>7</v>
-      </c>
-      <c r="C18" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="37">
-        <v>2000</v>
-      </c>
-      <c r="E18" s="38">
-        <v>30</v>
-      </c>
-      <c r="F18" s="37">
-        <v>0</v>
-      </c>
-      <c r="G18" s="37">
-        <v>0</v>
-      </c>
-      <c r="H18" s="39">
-        <v>96.6</v>
-      </c>
-      <c r="I18" s="39" t="s">
+      <c r="J19" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="J18" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" s="34">
-        <v>3403.4</v>
-      </c>
-      <c r="L18" s="34"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-    </row>
-    <row r="19" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="36">
-        <v>8</v>
-      </c>
-      <c r="C19" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="37">
-        <v>5000</v>
-      </c>
-      <c r="E19" s="38">
-        <v>30</v>
-      </c>
-      <c r="F19" s="37">
-        <v>0</v>
-      </c>
-      <c r="G19" s="37">
-        <v>0</v>
-      </c>
-      <c r="H19" s="39">
-        <v>241.5</v>
-      </c>
-      <c r="I19" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="J19" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="K19" s="34">
+      <c r="K19" s="32">
         <v>6258.5</v>
       </c>
-      <c r="L19" s="34"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
     </row>
     <row r="20" spans="2:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="14"/>
+      <c r="B20" s="12"/>
       <c r="C20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <v>22000</v>
       </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="8">
+      <c r="E20" s="5"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="7">
         <f>SUM(H12:H19)</f>
         <v>1159.1999999999998</v>
       </c>
-      <c r="I20" s="9" t="s">
+      <c r="I20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J20" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="J20" s="10" t="s">
+      <c r="K20" s="31">
+        <v>49034</v>
+      </c>
+      <c r="L20" s="40"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+    </row>
+    <row r="24" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="18"/>
+      <c r="C24" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="K20" s="33">
-        <v>49034</v>
-      </c>
-      <c r="L20" s="42"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-    </row>
-    <row r="24" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="20"/>
-      <c r="C24" s="21" t="s">
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+    </row>
+    <row r="25" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="20">
+        <v>1</v>
+      </c>
+      <c r="C25" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-    </row>
-    <row r="25" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="22">
-        <v>1</v>
-      </c>
-      <c r="C25" s="20" t="s">
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+    </row>
+    <row r="26" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="20">
+        <v>2</v>
+      </c>
+      <c r="C26" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-    </row>
-    <row r="26" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="22">
-        <v>2</v>
-      </c>
-      <c r="C26" s="20" t="s">
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+    </row>
+    <row r="27" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="21">
+        <v>3</v>
+      </c>
+      <c r="C27" s="18" t="s">
         <v>39</v>
-      </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-    </row>
-    <row r="27" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="23">
-        <v>3</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>40</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -1832,19 +1838,19 @@
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="24"/>
+      <c r="B30" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="22"/>
       <c r="G30" s="2"/>
-      <c r="N30" s="15"/>
+      <c r="N30" s="13"/>
     </row>
     <row r="31" spans="2:14" ht="15" x14ac:dyDescent="0.2">
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="2:14" ht="15" x14ac:dyDescent="0.2">
       <c r="F32" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H32" s="1"/>
     </row>
@@ -1852,31 +1858,37 @@
       <c r="I33" s="1"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B39" s="28" t="s">
+      <c r="B39" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="H39" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="14"/>
+    </row>
+    <row r="40" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="C40" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="I40" s="29"/>
+      <c r="J40" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="H39" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="I39" s="29"/>
-      <c r="J39" s="29"/>
-      <c r="K39" s="29"/>
-      <c r="L39" s="29"/>
-      <c r="M39" s="16"/>
-    </row>
-    <row r="40" spans="2:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C40" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="I40" s="31"/>
-      <c r="J40" s="32" t="s">
-        <v>43</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="E7:I7"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.43307086614173229" bottom="0.31496062992125984" header="0" footer="0"/>
   <pageSetup scale="70" orientation="landscape" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
